--- a/biology/Botanique/Épervière_en_ombelle/Épervière_en_ombelle.xlsx
+++ b/biology/Botanique/Épervière_en_ombelle/Épervière_en_ombelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pervi%C3%A8re_en_ombelle</t>
+          <t>Épervière_en_ombelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hieracium umbellatum, l'Épervière en ombelle, est une espèce de plante à fleurs de la famille des Astéracées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pervi%C3%A8re_en_ombelle</t>
+          <t>Épervière_en_ombelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pervi%C3%A8re_en_ombelle</t>
+          <t>Épervière_en_ombelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liste des sous-espèces et variétés
-Selon Catalogue of Life                                   (25 avril 2015)[2] :
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (25 avril 2015) :
 sous-espèce Hieracium umbellatum subsp. bichlorophyllum (Druce &amp; Zahn) P.D.Sell &amp; C.West
 sous-espèce Hieracium umbellatum subsp. brevifolioides
 sous-espèce Hieracium umbellatum subsp. elisabethae
@@ -560,9 +579,9 @@
 variété Hieracium umbellatum var. japonicum
 variété Hieracium umbellatum var. laceolatum
 variété Hieracium umbellatum var. umbellatum
-Selon NCBI  (25 avril 2015)[3] :
+Selon NCBI  (25 avril 2015) :
 sous-espèce Hieracium umbellatum subsp. umbellatum
-Selon The Plant List            (25 avril 2015)[1] :
+Selon The Plant List            (25 avril 2015) :
 sous-espèce Hieracium umbellatum subsp. bichlorophyllum (Druce &amp; Zahn) P.D.Sell &amp; C.West
 sous-espèce Hieracium umbellatum subsp. brevifolioides Zahn
 sous-espèce Hieracium umbellatum subsp. elisabethae (Kem.-Nath.) Greuter
@@ -572,7 +591,7 @@
 sous-espèce Hieracium umbellatum subsp. sublaetevirens Zahn
 sous-espèce Hieracium umbellatum subsp. topaeanum (Prodan) Greuter
 sous-espèce Hieracium umbellatum subsp. turfosum (Kem.-Nath.) Greuter
-Selon Tropicos                                           (25 avril 2015)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 avril 2015) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Hieracium umbellatum subsp. bichlorophyllum (Druce &amp; Zahn) P.D. Sell &amp; C. West
 sous-espèce Hieracium umbellatum subsp. brevifolioides Zahn
 sous-espèce Hieracium umbellatum subsp. canadense (Michx.) G.A. Guppy
@@ -595,7 +614,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pervi%C3%A8re_en_ombelle</t>
+          <t>Épervière_en_ombelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -613,7 +632,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hémisphère Nord : Amérique du Nord, Asie, Europe.
 </t>
@@ -626,7 +647,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pervi%C3%A8re_en_ombelle</t>
+          <t>Épervière_en_ombelle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +665,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'une des plantes hôtes de la larve d'Aulacidea hieracii, un insecte hyménoptère formant des galles. La chenille du papillon Diacrisia purpurata s'en nourrit.
 </t>
@@ -657,7 +680,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89pervi%C3%A8re_en_ombelle</t>
+          <t>Épervière_en_ombelle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,7 +698,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'une des espèces utilisées dans l'Horloge florale de Linné  (ouverture des fleurs à 7h, fermeture à 17h).
 </t>
